--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209890.5619206438</v>
+        <v>-212354.6253643493</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>20.07755500208248</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.97999014464777</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>124.6100630360569</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>156.9748953434544</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>186.378704251397</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.38185492767537</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>68.35584245823318</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>11.64558632322244</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>198.2072893438693</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>30.96855708844749</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>299.0513903014196</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>6.936609094993516</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>27.19006412747759</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>33.38664646283027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182112</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>60.64713141731233</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>38.37250637580683</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089533</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>40.57972681915141</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>134.9967644582759</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>22.04658882052576</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>177.8304655333018</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>100.1755269486888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2998,22 +2998,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>105.9893107373038</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>106.7475924760364</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>206.8136332941418</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>88.27810958517536</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140706</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002947</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D2" t="n">
-        <v>905.9933386123325</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>531.9613661254191</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,7 +4343,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4370,10 +4370,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
@@ -4446,7 +4446,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.0385327017428</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="C4" t="n">
-        <v>523.102349773836</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="D4" t="n">
-        <v>372.9857103615002</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="E4" t="n">
-        <v>225.0726167791071</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="F4" t="n">
-        <v>225.0726167791071</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>2623.050455131167</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.093718466961</v>
+        <v>2368.365966925281</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.67654843</v>
+        <v>2078.94879688832</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319826</v>
+        <v>1890.687479462666</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.6869975319826</v>
+        <v>1890.687479462666</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>953.2602595377772</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>784.3240766098703</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1637.254707670396</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1637.254707670396</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1134.908724368017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223197</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.833343223197</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D8" t="n">
-        <v>894.5676446164468</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>508.7793920182026</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>97.79348722859504</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,37 +4817,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1830.457414992492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1830.457414992492</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1541.354548118136</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1286.670059912249</v>
       </c>
       <c r="W10" t="n">
-        <v>1141.86239179661</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="X10" t="n">
-        <v>913.8728408985925</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.0802617550623</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>702.4944101284084</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>533.5582272005015</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2166.101889898845</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1877.026663243043</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1622.342175037156</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1332.925005000196</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1104.935454102178</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>884.1428749586481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.5373202159259</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>821.601137288019</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>671.4844978756832</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>523.5714042932901</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,16 +5598,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235163</v>
+        <v>2405.973460530613</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2186.371995553553</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602302</v>
+        <v>1897.296768897751</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396415</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614373</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179072</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>424.9938751277886</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>424.9938751277886</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>257.7977758426685</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>116.0859446848666</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2017.435812625646</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1728.360585969844</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1473.676097763957</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1030.918378293891</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
         <v>929.7309773356195</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1433.359422267661</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.566843124131</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
         <v>1373.553594266881</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>334.6054866186005</v>
+        <v>56.7326616930712</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>286.3116626173966</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.8601746357976</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.728115292809356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>107.0485416471289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.505489761042</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>140.4465591824932</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>44.83521572366135</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>59.21924749803978</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39.57498479398646</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>67.07129414993906</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>145.3900508477916</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>58.15585306139381</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="F2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>302679.9748837521</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="L2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39868.27766558521</v>
+        <v>39868.2776655851</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26439,25 +26439,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201825.997351673</v>
+        <v>-1202047.128665647</v>
       </c>
       <c r="C6" t="n">
-        <v>109602.6561145681</v>
+        <v>109602.6561145679</v>
       </c>
       <c r="D6" t="n">
         <v>109602.6561145682</v>
       </c>
       <c r="E6" t="n">
-        <v>-135022.0489993033</v>
+        <v>-135056.786924739</v>
       </c>
       <c r="F6" t="n">
-        <v>190390.4128080512</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="G6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.6748826157</v>
       </c>
       <c r="H6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826157</v>
       </c>
       <c r="I6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="J6" t="n">
-        <v>-27140.78958922579</v>
+        <v>-27175.52751466163</v>
       </c>
       <c r="K6" t="n">
-        <v>190390.4128080516</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="L6" t="n">
-        <v>190390.4128080514</v>
+        <v>190355.6748826158</v>
       </c>
       <c r="M6" t="n">
-        <v>105335.3848725398</v>
+        <v>105300.6469471041</v>
       </c>
       <c r="N6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.6748826159</v>
       </c>
       <c r="O6" t="n">
-        <v>190390.4128080515</v>
+        <v>190355.6748826158</v>
       </c>
       <c r="P6" t="n">
-        <v>166140.9383366721</v>
+        <v>166140.9383366719</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>297.9503799276118</v>
       </c>
       <c r="E2" t="n">
-        <v>297.950379927614</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.050912915573832</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>39.3309511376402</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.3519867358052</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>182.6393295006688</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>136.9698866949899</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>88.00454886174356</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>379.953168565006</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>50.18957841599342</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.8324162364484</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>259.3329342091134</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32722,10 +32722,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060441</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
